--- a/medicine/Mort/Cimetière_de_Cocherel/Cimetière_de_Cocherel.xlsx
+++ b/medicine/Mort/Cimetière_de_Cocherel/Cimetière_de_Cocherel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cocherel</t>
+          <t>Cimetière_de_Cocherel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Cocherel est situé sur le versant nord de la vallée d'Eure, autour de l'église Notre-Dame de Cocherel, sur la commune d'Houlbec-Cocherel.
-Le 15 novembre 1934, le site naturel formé par l'église, le cimetière, le tombeau d'Aristide Briand[1] et leur environnement a été classé  Site classé (1934)[2].
+Le 15 novembre 1934, le site naturel formé par l'église, le cimetière, le tombeau d'Aristide Briand et leur environnement a été classé  Site classé (1934).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cocherel</t>
+          <t>Cimetière_de_Cocherel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La tombe de la compagne d'Aristide Briand, Lucie Jourdan[3], s'y trouve depuis 1957, année de sa mort.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La tombe de la compagne d'Aristide Briand, Lucie Jourdan, s'y trouve depuis 1957, année de sa mort.</t>
         </is>
       </c>
     </row>
